--- a/Функционал.xlsx
+++ b/Функционал.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Хотелка</t>
   </si>
@@ -48,6 +48,22 @@
   </si>
   <si>
     <t>Ведет словарик, организует рандомный опрос, показывает слова по запросу</t>
+  </si>
+  <si>
+    <t>Модель данных</t>
+  </si>
+  <si>
+    <t>1. индекс
+2. Наименование
+3. Картинка (ссылка на товар)
+4. Цена
+5. Принадлежность (Наименование объекта)</t>
+  </si>
+  <si>
+    <t>Список др</t>
+  </si>
+  <si>
+    <t>Показывает мероприятия и др в месяце, можно добавлять и удалять</t>
   </si>
 </sst>
 </file>
@@ -83,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,20 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="62.375" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="62.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="47.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -418,8 +438,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -432,8 +455,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -444,7 +470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -453,6 +479,17 @@
       </c>
       <c r="C4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
